--- a/Code/Results/Cases/Case_3_116/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_116/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.000665566310175</v>
+        <v>1.047636403393069</v>
       </c>
       <c r="D2">
-        <v>1.016766186929399</v>
+        <v>1.045330786168474</v>
       </c>
       <c r="E2">
-        <v>1.014887474030555</v>
+        <v>1.054809629692547</v>
       </c>
       <c r="F2">
-        <v>1.022121422184938</v>
+        <v>1.065058965107623</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042141906525873</v>
+        <v>1.037722866907686</v>
       </c>
       <c r="J2">
-        <v>1.022826388609432</v>
+        <v>1.052684416159849</v>
       </c>
       <c r="K2">
-        <v>1.02799678109974</v>
+        <v>1.048099327578221</v>
       </c>
       <c r="L2">
-        <v>1.026143226910661</v>
+        <v>1.057551816867986</v>
       </c>
       <c r="M2">
-        <v>1.033280938502144</v>
+        <v>1.067773227213547</v>
       </c>
       <c r="N2">
-        <v>1.024278919401085</v>
+        <v>1.054179348775386</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.007958694840293</v>
+        <v>1.049099351950871</v>
       </c>
       <c r="D3">
-        <v>1.022009592990877</v>
+        <v>1.046387318368268</v>
       </c>
       <c r="E3">
-        <v>1.021179255564967</v>
+        <v>1.056122647936853</v>
       </c>
       <c r="F3">
-        <v>1.028894392729774</v>
+        <v>1.066484358712065</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044092774709551</v>
+        <v>1.038030198907875</v>
       </c>
       <c r="J3">
-        <v>1.028234724335856</v>
+        <v>1.05379339559007</v>
       </c>
       <c r="K3">
-        <v>1.032368394017365</v>
+        <v>1.04896664022097</v>
       </c>
       <c r="L3">
-        <v>1.031548130074336</v>
+        <v>1.058676876088282</v>
       </c>
       <c r="M3">
-        <v>1.039170445395778</v>
+        <v>1.069012420843264</v>
       </c>
       <c r="N3">
-        <v>1.029694935584585</v>
+        <v>1.0552899030836</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.012540838394703</v>
+        <v>1.050044847489913</v>
       </c>
       <c r="D4">
-        <v>1.025306309441683</v>
+        <v>1.047069782557128</v>
       </c>
       <c r="E4">
-        <v>1.025138920011264</v>
+        <v>1.056971507606922</v>
       </c>
       <c r="F4">
-        <v>1.033158148136656</v>
+        <v>1.067406054740654</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045306237330976</v>
+        <v>1.038227208199964</v>
       </c>
       <c r="J4">
-        <v>1.031629098865894</v>
+        <v>1.054509440044578</v>
       </c>
       <c r="K4">
-        <v>1.035108610070804</v>
+        <v>1.049526071514289</v>
       </c>
       <c r="L4">
-        <v>1.034943120122799</v>
+        <v>1.059403569294328</v>
       </c>
       <c r="M4">
-        <v>1.042872199622403</v>
+        <v>1.069813107880382</v>
       </c>
       <c r="N4">
-        <v>1.033094130515795</v>
+        <v>1.056006964403364</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.014436164177811</v>
+        <v>1.050442069588473</v>
       </c>
       <c r="D5">
-        <v>1.026670389308301</v>
+        <v>1.047356410861164</v>
       </c>
       <c r="E5">
-        <v>1.026778271905574</v>
+        <v>1.057328193217293</v>
       </c>
       <c r="F5">
-        <v>1.034923705206576</v>
+        <v>1.067793390398083</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045805163586791</v>
+        <v>1.03830958818263</v>
       </c>
       <c r="J5">
-        <v>1.033032193703585</v>
+        <v>1.054810101067374</v>
       </c>
       <c r="K5">
-        <v>1.036240433065118</v>
+        <v>1.049760834140149</v>
       </c>
       <c r="L5">
-        <v>1.036347126256881</v>
+        <v>1.059708765382906</v>
       </c>
       <c r="M5">
-        <v>1.044403634586347</v>
+        <v>1.070149445129731</v>
       </c>
       <c r="N5">
-        <v>1.034499217909093</v>
+        <v>1.056308052399299</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.014752628789642</v>
+        <v>1.050508749614862</v>
       </c>
       <c r="D6">
-        <v>1.02689817424287</v>
+        <v>1.047404520718297</v>
       </c>
       <c r="E6">
-        <v>1.027052082194016</v>
+        <v>1.057388072177446</v>
       </c>
       <c r="F6">
-        <v>1.035218612967999</v>
+        <v>1.067858417386942</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045888291418506</v>
+        <v>1.038323394222663</v>
       </c>
       <c r="J6">
-        <v>1.033266413304669</v>
+        <v>1.054860562156471</v>
       </c>
       <c r="K6">
-        <v>1.036429317015661</v>
+        <v>1.049800227152097</v>
       </c>
       <c r="L6">
-        <v>1.036581536409794</v>
+        <v>1.059759991347268</v>
       </c>
       <c r="M6">
-        <v>1.044659353218941</v>
+        <v>1.070205901844755</v>
       </c>
       <c r="N6">
-        <v>1.034733770128875</v>
+        <v>1.056358585148931</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.012566283408673</v>
+        <v>1.050050156221459</v>
       </c>
       <c r="D7">
-        <v>1.025324620781948</v>
+        <v>1.047073613593005</v>
       </c>
       <c r="E7">
-        <v>1.025160922703937</v>
+        <v>1.056976274339197</v>
       </c>
       <c r="F7">
-        <v>1.033181843478281</v>
+        <v>1.067411230903337</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045312947451636</v>
+        <v>1.038228310703224</v>
       </c>
       <c r="J7">
-        <v>1.031647939381963</v>
+        <v>1.054513458916888</v>
       </c>
       <c r="K7">
-        <v>1.035123811478935</v>
+        <v>1.049529210079149</v>
       </c>
       <c r="L7">
-        <v>1.034961970284834</v>
+        <v>1.059407648535325</v>
       </c>
       <c r="M7">
-        <v>1.042892758405567</v>
+        <v>1.069817603096465</v>
       </c>
       <c r="N7">
-        <v>1.033112997787558</v>
+        <v>1.056010988982934</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.003159805124404</v>
+        <v>1.048131051481598</v>
       </c>
       <c r="D8">
-        <v>1.018558845105615</v>
+        <v>1.045688093203618</v>
       </c>
       <c r="E8">
-        <v>1.017037792413126</v>
+        <v>1.055253528725512</v>
       </c>
       <c r="F8">
-        <v>1.024435932523845</v>
+        <v>1.065540816925616</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042811639212103</v>
+        <v>1.03782711613377</v>
       </c>
       <c r="J8">
-        <v>1.024676743529821</v>
+        <v>1.053059522387852</v>
       </c>
       <c r="K8">
-        <v>1.0294931588912</v>
+        <v>1.048392810119511</v>
       </c>
       <c r="L8">
-        <v>1.027991817590348</v>
+        <v>1.057932306745739</v>
       </c>
       <c r="M8">
-        <v>1.035294772070569</v>
+        <v>1.068192260311543</v>
       </c>
       <c r="N8">
-        <v>1.026131902037699</v>
+        <v>1.054554987697258</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9854461596942429</v>
+        <v>1.044740406404847</v>
       </c>
       <c r="D9">
-        <v>1.005843513942098</v>
+        <v>1.043237411787186</v>
       </c>
       <c r="E9">
-        <v>1.001799571112433</v>
+        <v>1.052211864693109</v>
       </c>
       <c r="F9">
-        <v>1.008039366356814</v>
+        <v>1.06223985702887</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038005431536483</v>
+        <v>1.037105890117173</v>
       </c>
       <c r="J9">
-        <v>1.011523530763226</v>
+        <v>1.050485509641142</v>
       </c>
       <c r="K9">
-        <v>1.018842490352496</v>
+        <v>1.046376559551044</v>
       </c>
       <c r="L9">
-        <v>1.014863518849124</v>
+        <v>1.055322448667743</v>
       </c>
       <c r="M9">
-        <v>1.021003343268047</v>
+        <v>1.065319147685586</v>
       </c>
       <c r="N9">
-        <v>1.01296001020028</v>
+        <v>1.051977319557204</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.972731877474363</v>
+        <v>1.042473570048405</v>
       </c>
       <c r="D10">
-        <v>0.9967440636404432</v>
+        <v>1.041597202467081</v>
       </c>
       <c r="E10">
-        <v>0.99090970585724</v>
+        <v>1.050179774671977</v>
       </c>
       <c r="F10">
-        <v>0.9963281053595748</v>
+        <v>1.060035490652371</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034495340315233</v>
+        <v>1.036615390011907</v>
       </c>
       <c r="J10">
-        <v>1.002070759582396</v>
+        <v>1.048761156171883</v>
       </c>
       <c r="K10">
-        <v>1.011172354923823</v>
+        <v>1.045022921375665</v>
       </c>
       <c r="L10">
-        <v>1.005445051229773</v>
+        <v>1.05357546400264</v>
       </c>
       <c r="M10">
-        <v>1.010763975000756</v>
+        <v>1.063397355435017</v>
       </c>
       <c r="N10">
-        <v>1.003493815000126</v>
+        <v>1.050250517308234</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9669751174518981</v>
+        <v>1.041490396419312</v>
       </c>
       <c r="D11">
-        <v>0.9926329906440452</v>
+        <v>1.040885399877416</v>
       </c>
       <c r="E11">
-        <v>0.9859922911920602</v>
+        <v>1.049298766012557</v>
       </c>
       <c r="F11">
-        <v>0.9910412212334765</v>
+        <v>1.059080017692314</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032892967784222</v>
+        <v>1.036400681339825</v>
       </c>
       <c r="J11">
-        <v>0.9977893649517233</v>
+        <v>1.048012449150002</v>
       </c>
       <c r="K11">
-        <v>1.007695188225372</v>
+        <v>1.044434486428473</v>
       </c>
       <c r="L11">
-        <v>1.001183297083568</v>
+        <v>1.052817258989448</v>
       </c>
       <c r="M11">
-        <v>1.006134087975212</v>
+        <v>1.062563616944062</v>
       </c>
       <c r="N11">
-        <v>0.9992063402979947</v>
+        <v>1.049500747036503</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9647954184320394</v>
+        <v>1.041124951047703</v>
       </c>
       <c r="D12">
-        <v>0.991077990065324</v>
+        <v>1.040620762691742</v>
       </c>
       <c r="E12">
-        <v>0.9841325828412504</v>
+        <v>1.048971348921355</v>
       </c>
       <c r="F12">
-        <v>0.9890419928346197</v>
+        <v>1.0587249606255</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032284411686052</v>
+        <v>1.036320578798025</v>
       </c>
       <c r="J12">
-        <v>0.9961682184568027</v>
+        <v>1.047734032378287</v>
       </c>
       <c r="K12">
-        <v>1.006378141419906</v>
+        <v>1.044215565589775</v>
       </c>
       <c r="L12">
-        <v>0.9995702248279252</v>
+        <v>1.052535359653276</v>
       </c>
       <c r="M12">
-        <v>1.004382185868753</v>
+        <v>1.062253684636239</v>
       </c>
       <c r="N12">
-        <v>0.9975828915891031</v>
+        <v>1.049221934881037</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9652649071375083</v>
+        <v>1.041203351799538</v>
       </c>
       <c r="D13">
-        <v>0.9914128482712297</v>
+        <v>1.040677539289953</v>
       </c>
       <c r="E13">
-        <v>0.9845330462868227</v>
+        <v>1.0490415888441</v>
       </c>
       <c r="F13">
-        <v>0.9894724907530016</v>
+        <v>1.058801128548262</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032415570734138</v>
+        <v>1.036337776940544</v>
       </c>
       <c r="J13">
-        <v>0.9965174004403966</v>
+        <v>1.047793768003985</v>
       </c>
       <c r="K13">
-        <v>1.006661840787374</v>
+        <v>1.044262540755037</v>
       </c>
       <c r="L13">
-        <v>0.9999176385537499</v>
+        <v>1.052595840243919</v>
       </c>
       <c r="M13">
-        <v>1.004759476804801</v>
+        <v>1.06232017733662</v>
       </c>
       <c r="N13">
-        <v>0.9979325694511656</v>
+        <v>1.049281755338176</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9667958096246174</v>
+        <v>1.04146019375436</v>
       </c>
       <c r="D14">
-        <v>0.9925050385198302</v>
+        <v>1.040863529847991</v>
       </c>
       <c r="E14">
-        <v>0.9858392611348982</v>
+        <v>1.049271705141608</v>
       </c>
       <c r="F14">
-        <v>0.9908767062766541</v>
+        <v>1.059050671700036</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032842943023541</v>
+        <v>1.03639406719275</v>
       </c>
       <c r="J14">
-        <v>0.9976560056997323</v>
+        <v>1.047989441563473</v>
       </c>
       <c r="K14">
-        <v>1.0075868531016</v>
+        <v>1.044416397526177</v>
       </c>
       <c r="L14">
-        <v>1.001050588983454</v>
+        <v>1.052793962605954</v>
       </c>
       <c r="M14">
-        <v>1.005989947916067</v>
+        <v>1.062538002868901</v>
       </c>
       <c r="N14">
-        <v>0.9990727916605691</v>
+        <v>1.049477706776563</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9677334494916383</v>
+        <v>1.041618409079028</v>
       </c>
       <c r="D15">
-        <v>0.9931741941597098</v>
+        <v>1.040978092566324</v>
       </c>
       <c r="E15">
-        <v>0.9866395788418385</v>
+        <v>1.049413464516693</v>
       </c>
       <c r="F15">
-        <v>0.9917370962467315</v>
+        <v>1.059204403153642</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.0331044592113</v>
+        <v>1.036428703018637</v>
       </c>
       <c r="J15">
-        <v>0.9983533684475151</v>
+        <v>1.048109960772874</v>
       </c>
       <c r="K15">
-        <v>1.008153342832876</v>
+        <v>1.044511147268128</v>
       </c>
       <c r="L15">
-        <v>1.001744572756762</v>
+        <v>1.052915996624636</v>
       </c>
       <c r="M15">
-        <v>1.006743734701454</v>
+        <v>1.062672179765852</v>
       </c>
       <c r="N15">
-        <v>0.9997711447434426</v>
+        <v>1.049598397137065</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9731083403043437</v>
+        <v>1.042538785283772</v>
       </c>
       <c r="D16">
-        <v>0.9970131119935377</v>
+        <v>1.041644408767887</v>
       </c>
       <c r="E16">
-        <v>0.991231570188985</v>
+        <v>1.050238220627252</v>
       </c>
       <c r="F16">
-        <v>0.9966741821384733</v>
+        <v>1.06009888130485</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034599866546116</v>
+        <v>1.036629590510193</v>
       </c>
       <c r="J16">
-        <v>1.002350723712677</v>
+        <v>1.048810801713038</v>
       </c>
       <c r="K16">
-        <v>1.01139966884722</v>
+        <v>1.045061925030565</v>
       </c>
       <c r="L16">
-        <v>1.005723817632833</v>
+        <v>1.053625746256004</v>
       </c>
       <c r="M16">
-        <v>1.011066890849045</v>
+        <v>1.063452653918539</v>
       </c>
       <c r="N16">
-        <v>1.003774176711584</v>
+        <v>1.050300233351751</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9764101550796433</v>
+        <v>1.043115674183209</v>
       </c>
       <c r="D17">
-        <v>0.9993738722340403</v>
+        <v>1.042061944863153</v>
       </c>
       <c r="E17">
-        <v>0.9940560414392924</v>
+        <v>1.050755269587606</v>
       </c>
       <c r="F17">
-        <v>0.9997112877190127</v>
+        <v>1.060659700162744</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035515165122352</v>
+        <v>1.036754979831339</v>
       </c>
       <c r="J17">
-        <v>1.00480604394043</v>
+        <v>1.049249867797479</v>
       </c>
       <c r="K17">
-        <v>1.013392888651659</v>
+        <v>1.045406794422234</v>
       </c>
       <c r="L17">
-        <v>1.008169098668892</v>
+        <v>1.054070481322828</v>
       </c>
       <c r="M17">
-        <v>1.013724381001738</v>
+        <v>1.063941794980664</v>
       </c>
       <c r="N17">
-        <v>1.006232983775689</v>
+        <v>1.050739922960394</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9783120596140481</v>
+        <v>1.043452008079985</v>
       </c>
       <c r="D18">
-        <v>1.000734537918035</v>
+        <v>1.04230533435141</v>
       </c>
       <c r="E18">
-        <v>0.9956842221748008</v>
+        <v>1.051056749742758</v>
       </c>
       <c r="F18">
-        <v>1.00146217845145</v>
+        <v>1.060986723378371</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036041156966373</v>
+        <v>1.03682789368402</v>
       </c>
       <c r="J18">
-        <v>1.006220213320806</v>
+        <v>1.049505770142796</v>
       </c>
       <c r="K18">
-        <v>1.014540604315027</v>
+        <v>1.045607729210214</v>
       </c>
       <c r="L18">
-        <v>1.009577869733707</v>
+        <v>1.054329719368546</v>
       </c>
       <c r="M18">
-        <v>1.015255720431896</v>
+        <v>1.064226949696442</v>
       </c>
       <c r="N18">
-        <v>1.007649161438793</v>
+        <v>1.050996188716393</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9789565933343618</v>
+        <v>1.043566663081436</v>
       </c>
       <c r="D19">
-        <v>1.001195785314348</v>
+        <v>1.042388298186754</v>
       </c>
       <c r="E19">
-        <v>0.996236198174364</v>
+        <v>1.051159528925611</v>
       </c>
       <c r="F19">
-        <v>1.00205577810961</v>
+        <v>1.061098214275046</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036219196492922</v>
+        <v>1.036852717548117</v>
       </c>
       <c r="J19">
-        <v>1.006699431747722</v>
+        <v>1.049592992902132</v>
       </c>
       <c r="K19">
-        <v>1.014929477028752</v>
+        <v>1.045676205304962</v>
       </c>
       <c r="L19">
-        <v>1.010055323383463</v>
+        <v>1.054418084444167</v>
       </c>
       <c r="M19">
-        <v>1.01577476679053</v>
+        <v>1.0643241543122</v>
       </c>
       <c r="N19">
-        <v>1.008129060410843</v>
+        <v>1.051083535342052</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9760584074308307</v>
+        <v>1.043053795618494</v>
       </c>
       <c r="D20">
-        <v>0.9991222892357913</v>
+        <v>1.042017162972228</v>
       </c>
       <c r="E20">
-        <v>0.9937550163675372</v>
+        <v>1.050699806109441</v>
       </c>
       <c r="F20">
-        <v>0.999387586546796</v>
+        <v>1.060599539266612</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035417784602541</v>
+        <v>1.036741549886643</v>
       </c>
       <c r="J20">
-        <v>1.004544488253939</v>
+        <v>1.04920278062793</v>
       </c>
       <c r="K20">
-        <v>1.013180589706773</v>
+        <v>1.045369816161966</v>
       </c>
       <c r="L20">
-        <v>1.007908572381285</v>
+        <v>1.054022782916484</v>
       </c>
       <c r="M20">
-        <v>1.013441213061363</v>
+        <v>1.063889330640972</v>
       </c>
       <c r="N20">
-        <v>1.005971056650123</v>
+        <v>1.050692768921663</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9663461707570187</v>
+        <v>1.041384567189075</v>
       </c>
       <c r="D21">
-        <v>0.9921842074707178</v>
+        <v>1.040808766981053</v>
       </c>
       <c r="E21">
-        <v>0.985455553211857</v>
+        <v>1.049203946402731</v>
       </c>
       <c r="F21">
-        <v>0.9904642044248824</v>
+        <v>1.058977191705993</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032717469866482</v>
+        <v>1.036377500797664</v>
       </c>
       <c r="J21">
-        <v>0.9973215885396414</v>
+        <v>1.047931829280374</v>
       </c>
       <c r="K21">
-        <v>1.007315180915716</v>
+        <v>1.044371100235059</v>
       </c>
       <c r="L21">
-        <v>1.00071781500282</v>
+        <v>1.052735627956961</v>
       </c>
       <c r="M21">
-        <v>1.005628515783662</v>
+        <v>1.062473865481311</v>
       </c>
       <c r="N21">
-        <v>0.998737899589753</v>
+        <v>1.049420012677413</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9599981229780005</v>
+        <v>1.040333601463464</v>
       </c>
       <c r="D22">
-        <v>0.9876588099082215</v>
+        <v>1.040047598023059</v>
       </c>
       <c r="E22">
-        <v>0.9800438204695396</v>
+        <v>1.0482624462704</v>
       </c>
       <c r="F22">
-        <v>0.9846468582647175</v>
+        <v>1.057956275511182</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030941780577319</v>
+        <v>1.036146581747522</v>
       </c>
       <c r="J22">
-        <v>0.9926002786261097</v>
+        <v>1.04713091426854</v>
       </c>
       <c r="K22">
-        <v>1.003478777685134</v>
+        <v>1.043741141356388</v>
       </c>
       <c r="L22">
-        <v>0.9960212573353423</v>
+        <v>1.05192478789389</v>
       </c>
       <c r="M22">
-        <v>1.000528725336187</v>
+        <v>1.061582487603662</v>
       </c>
       <c r="N22">
-        <v>0.9940098848746021</v>
+        <v>1.048617960274396</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9633875782664477</v>
+        <v>1.040890878847859</v>
       </c>
       <c r="D23">
-        <v>0.9900741144834377</v>
+        <v>1.040451242523284</v>
       </c>
       <c r="E23">
-        <v>0.98293206291057</v>
+        <v>1.048761649496611</v>
       </c>
       <c r="F23">
-        <v>0.9877514648246635</v>
+        <v>1.058497568266505</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031890848835271</v>
+        <v>1.036269189037935</v>
       </c>
       <c r="J23">
-        <v>0.9951211393555125</v>
+        <v>1.047555668612971</v>
       </c>
       <c r="K23">
-        <v>1.005527365583497</v>
+        <v>1.044075287995325</v>
       </c>
       <c r="L23">
-        <v>0.9985285433473479</v>
+        <v>1.052354778744575</v>
       </c>
       <c r="M23">
-        <v>1.003250996281492</v>
+        <v>1.062055160331605</v>
       </c>
       <c r="N23">
-        <v>0.9965343255153873</v>
+        <v>1.049043317818715</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9762174209155077</v>
+        <v>1.043081756359567</v>
       </c>
       <c r="D24">
-        <v>0.9992360190463037</v>
+        <v>1.042037398451889</v>
       </c>
       <c r="E24">
-        <v>0.9938910960302771</v>
+        <v>1.050724867994938</v>
       </c>
       <c r="F24">
-        <v>0.9995339166146231</v>
+        <v>1.060626723673497</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035461810966805</v>
+        <v>1.03674761899165</v>
       </c>
       <c r="J24">
-        <v>1.004662729376094</v>
+        <v>1.049224057903465</v>
       </c>
       <c r="K24">
-        <v>1.013276564342619</v>
+        <v>1.045386525731342</v>
       </c>
       <c r="L24">
-        <v>1.008026346953429</v>
+        <v>1.054044336293772</v>
       </c>
       <c r="M24">
-        <v>1.013569222146273</v>
+        <v>1.063913037490822</v>
       </c>
       <c r="N24">
-        <v>1.006089465688234</v>
+        <v>1.05071407641337</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9901738870090216</v>
+        <v>1.045618069311216</v>
       </c>
       <c r="D25">
-        <v>1.009233322437552</v>
+        <v>1.043872086987068</v>
       </c>
       <c r="E25">
-        <v>1.005859094447405</v>
+        <v>1.052998945813616</v>
       </c>
       <c r="F25">
-        <v>1.012406359578885</v>
+        <v>1.063093866769847</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039298839460857</v>
+        <v>1.037294044453012</v>
       </c>
       <c r="J25">
-        <v>1.015036525263733</v>
+        <v>1.051152403628782</v>
       </c>
       <c r="K25">
-        <v>1.021689974167197</v>
+        <v>1.046899462227065</v>
       </c>
       <c r="L25">
-        <v>1.018367131348558</v>
+        <v>1.055998386894671</v>
       </c>
       <c r="M25">
-        <v>1.024815087878237</v>
+        <v>1.066063019362498</v>
       </c>
       <c r="N25">
-        <v>1.016477993555924</v>
+        <v>1.052645160610801</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_116/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_116/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.047636403393069</v>
+        <v>1.000665566310173</v>
       </c>
       <c r="D2">
-        <v>1.045330786168474</v>
+        <v>1.016766186929396</v>
       </c>
       <c r="E2">
-        <v>1.054809629692547</v>
+        <v>1.014887474030552</v>
       </c>
       <c r="F2">
-        <v>1.065058965107623</v>
+        <v>1.022121422184935</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037722866907686</v>
+        <v>1.042141906525871</v>
       </c>
       <c r="J2">
-        <v>1.052684416159849</v>
+        <v>1.022826388609429</v>
       </c>
       <c r="K2">
-        <v>1.048099327578221</v>
+        <v>1.027996781099738</v>
       </c>
       <c r="L2">
-        <v>1.057551816867986</v>
+        <v>1.026143226910658</v>
       </c>
       <c r="M2">
-        <v>1.067773227213547</v>
+        <v>1.033280938502141</v>
       </c>
       <c r="N2">
-        <v>1.054179348775386</v>
+        <v>1.024278919401082</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.049099351950871</v>
+        <v>1.007958694840292</v>
       </c>
       <c r="D3">
-        <v>1.046387318368268</v>
+        <v>1.022009592990877</v>
       </c>
       <c r="E3">
-        <v>1.056122647936853</v>
+        <v>1.021179255564966</v>
       </c>
       <c r="F3">
-        <v>1.066484358712065</v>
+        <v>1.028894392729774</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038030198907875</v>
+        <v>1.04409277470955</v>
       </c>
       <c r="J3">
-        <v>1.05379339559007</v>
+        <v>1.028234724335855</v>
       </c>
       <c r="K3">
-        <v>1.04896664022097</v>
+        <v>1.032368394017364</v>
       </c>
       <c r="L3">
-        <v>1.058676876088282</v>
+        <v>1.031548130074335</v>
       </c>
       <c r="M3">
-        <v>1.069012420843264</v>
+        <v>1.039170445395778</v>
       </c>
       <c r="N3">
-        <v>1.0552899030836</v>
+        <v>1.029694935584584</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.050044847489913</v>
+        <v>1.012540838394702</v>
       </c>
       <c r="D4">
-        <v>1.047069782557128</v>
+        <v>1.025306309441681</v>
       </c>
       <c r="E4">
-        <v>1.056971507606922</v>
+        <v>1.025138920011263</v>
       </c>
       <c r="F4">
-        <v>1.067406054740654</v>
+        <v>1.033158148136655</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038227208199964</v>
+        <v>1.045306237330976</v>
       </c>
       <c r="J4">
-        <v>1.054509440044578</v>
+        <v>1.031629098865893</v>
       </c>
       <c r="K4">
-        <v>1.049526071514289</v>
+        <v>1.035108610070803</v>
       </c>
       <c r="L4">
-        <v>1.059403569294328</v>
+        <v>1.034943120122797</v>
       </c>
       <c r="M4">
-        <v>1.069813107880382</v>
+        <v>1.042872199622401</v>
       </c>
       <c r="N4">
-        <v>1.056006964403364</v>
+        <v>1.033094130515794</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.050442069588473</v>
+        <v>1.014436164177811</v>
       </c>
       <c r="D5">
-        <v>1.047356410861164</v>
+        <v>1.0266703893083</v>
       </c>
       <c r="E5">
-        <v>1.057328193217293</v>
+        <v>1.026778271905574</v>
       </c>
       <c r="F5">
-        <v>1.067793390398083</v>
+        <v>1.034923705206577</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03830958818263</v>
+        <v>1.045805163586791</v>
       </c>
       <c r="J5">
-        <v>1.054810101067374</v>
+        <v>1.033032193703585</v>
       </c>
       <c r="K5">
-        <v>1.049760834140149</v>
+        <v>1.036240433065118</v>
       </c>
       <c r="L5">
-        <v>1.059708765382906</v>
+        <v>1.036347126256881</v>
       </c>
       <c r="M5">
-        <v>1.070149445129731</v>
+        <v>1.044403634586347</v>
       </c>
       <c r="N5">
-        <v>1.056308052399299</v>
+        <v>1.034499217909093</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.050508749614862</v>
+        <v>1.014752628789642</v>
       </c>
       <c r="D6">
-        <v>1.047404520718297</v>
+        <v>1.02689817424287</v>
       </c>
       <c r="E6">
-        <v>1.057388072177446</v>
+        <v>1.027052082194016</v>
       </c>
       <c r="F6">
-        <v>1.067858417386942</v>
+        <v>1.035218612967999</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038323394222663</v>
+        <v>1.045888291418506</v>
       </c>
       <c r="J6">
-        <v>1.054860562156471</v>
+        <v>1.033266413304669</v>
       </c>
       <c r="K6">
-        <v>1.049800227152097</v>
+        <v>1.036429317015661</v>
       </c>
       <c r="L6">
-        <v>1.059759991347268</v>
+        <v>1.036581536409794</v>
       </c>
       <c r="M6">
-        <v>1.070205901844755</v>
+        <v>1.04465935321894</v>
       </c>
       <c r="N6">
-        <v>1.056358585148931</v>
+        <v>1.034733770128875</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.050050156221459</v>
+        <v>1.012566283408673</v>
       </c>
       <c r="D7">
-        <v>1.047073613593005</v>
+        <v>1.025324620781948</v>
       </c>
       <c r="E7">
-        <v>1.056976274339197</v>
+        <v>1.025160922703937</v>
       </c>
       <c r="F7">
-        <v>1.067411230903337</v>
+        <v>1.033181843478281</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038228310703224</v>
+        <v>1.045312947451636</v>
       </c>
       <c r="J7">
-        <v>1.054513458916888</v>
+        <v>1.031647939381963</v>
       </c>
       <c r="K7">
-        <v>1.049529210079149</v>
+        <v>1.035123811478935</v>
       </c>
       <c r="L7">
-        <v>1.059407648535325</v>
+        <v>1.034961970284834</v>
       </c>
       <c r="M7">
-        <v>1.069817603096465</v>
+        <v>1.042892758405567</v>
       </c>
       <c r="N7">
-        <v>1.056010988982934</v>
+        <v>1.033112997787558</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.048131051481598</v>
+        <v>1.003159805124404</v>
       </c>
       <c r="D8">
-        <v>1.045688093203618</v>
+        <v>1.018558845105615</v>
       </c>
       <c r="E8">
-        <v>1.055253528725512</v>
+        <v>1.017037792413126</v>
       </c>
       <c r="F8">
-        <v>1.065540816925616</v>
+        <v>1.024435932523845</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03782711613377</v>
+        <v>1.042811639212103</v>
       </c>
       <c r="J8">
-        <v>1.053059522387852</v>
+        <v>1.024676743529821</v>
       </c>
       <c r="K8">
-        <v>1.048392810119511</v>
+        <v>1.0294931588912</v>
       </c>
       <c r="L8">
-        <v>1.057932306745739</v>
+        <v>1.027991817590348</v>
       </c>
       <c r="M8">
-        <v>1.068192260311543</v>
+        <v>1.035294772070568</v>
       </c>
       <c r="N8">
-        <v>1.054554987697258</v>
+        <v>1.026131902037699</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.044740406404847</v>
+        <v>0.9854461596942437</v>
       </c>
       <c r="D9">
-        <v>1.043237411787186</v>
+        <v>1.005843513942099</v>
       </c>
       <c r="E9">
-        <v>1.052211864693109</v>
+        <v>1.001799571112433</v>
       </c>
       <c r="F9">
-        <v>1.06223985702887</v>
+        <v>1.008039366356815</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037105890117173</v>
+        <v>1.038005431536483</v>
       </c>
       <c r="J9">
-        <v>1.050485509641142</v>
+        <v>1.011523530763227</v>
       </c>
       <c r="K9">
-        <v>1.046376559551044</v>
+        <v>1.018842490352497</v>
       </c>
       <c r="L9">
-        <v>1.055322448667743</v>
+        <v>1.014863518849124</v>
       </c>
       <c r="M9">
-        <v>1.065319147685586</v>
+        <v>1.021003343268048</v>
       </c>
       <c r="N9">
-        <v>1.051977319557204</v>
+        <v>1.012960010200281</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.042473570048405</v>
+        <v>0.9727318774743631</v>
       </c>
       <c r="D10">
-        <v>1.041597202467081</v>
+        <v>0.9967440636404433</v>
       </c>
       <c r="E10">
-        <v>1.050179774671977</v>
+        <v>0.9909097058572401</v>
       </c>
       <c r="F10">
-        <v>1.060035490652371</v>
+        <v>0.9963281053595748</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036615390011907</v>
+        <v>1.034495340315233</v>
       </c>
       <c r="J10">
-        <v>1.048761156171883</v>
+        <v>1.002070759582396</v>
       </c>
       <c r="K10">
-        <v>1.045022921375665</v>
+        <v>1.011172354923823</v>
       </c>
       <c r="L10">
-        <v>1.05357546400264</v>
+        <v>1.005445051229773</v>
       </c>
       <c r="M10">
-        <v>1.063397355435017</v>
+        <v>1.010763975000756</v>
       </c>
       <c r="N10">
-        <v>1.050250517308234</v>
+        <v>1.003493815000126</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.041490396419312</v>
+        <v>0.9669751174518985</v>
       </c>
       <c r="D11">
-        <v>1.040885399877416</v>
+        <v>0.9926329906440456</v>
       </c>
       <c r="E11">
-        <v>1.049298766012557</v>
+        <v>0.9859922911920604</v>
       </c>
       <c r="F11">
-        <v>1.059080017692314</v>
+        <v>0.9910412212334767</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036400681339825</v>
+        <v>1.032892967784223</v>
       </c>
       <c r="J11">
-        <v>1.048012449150002</v>
+        <v>0.9977893649517237</v>
       </c>
       <c r="K11">
-        <v>1.044434486428473</v>
+        <v>1.007695188225372</v>
       </c>
       <c r="L11">
-        <v>1.052817258989448</v>
+        <v>1.001183297083568</v>
       </c>
       <c r="M11">
-        <v>1.062563616944062</v>
+        <v>1.006134087975212</v>
       </c>
       <c r="N11">
-        <v>1.049500747036503</v>
+        <v>0.9992063402979949</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.041124951047703</v>
+        <v>0.964795418432039</v>
       </c>
       <c r="D12">
-        <v>1.040620762691742</v>
+        <v>0.991077990065324</v>
       </c>
       <c r="E12">
-        <v>1.048971348921355</v>
+        <v>0.9841325828412498</v>
       </c>
       <c r="F12">
-        <v>1.0587249606255</v>
+        <v>0.9890419928346191</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036320578798025</v>
+        <v>1.032284411686051</v>
       </c>
       <c r="J12">
-        <v>1.047734032378287</v>
+        <v>0.9961682184568025</v>
       </c>
       <c r="K12">
-        <v>1.044215565589775</v>
+        <v>1.006378141419906</v>
       </c>
       <c r="L12">
-        <v>1.052535359653276</v>
+        <v>0.9995702248279248</v>
       </c>
       <c r="M12">
-        <v>1.062253684636239</v>
+        <v>1.004382185868753</v>
       </c>
       <c r="N12">
-        <v>1.049221934881037</v>
+        <v>0.9975828915891028</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.041203351799538</v>
+        <v>0.9652649071375067</v>
       </c>
       <c r="D13">
-        <v>1.040677539289953</v>
+        <v>0.9914128482712283</v>
       </c>
       <c r="E13">
-        <v>1.0490415888441</v>
+        <v>0.9845330462868213</v>
       </c>
       <c r="F13">
-        <v>1.058801128548262</v>
+        <v>0.9894724907530005</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036337776940544</v>
+        <v>1.032415570734138</v>
       </c>
       <c r="J13">
-        <v>1.047793768003985</v>
+        <v>0.9965174004403954</v>
       </c>
       <c r="K13">
-        <v>1.044262540755037</v>
+        <v>1.006661840787373</v>
       </c>
       <c r="L13">
-        <v>1.052595840243919</v>
+        <v>0.9999176385537484</v>
       </c>
       <c r="M13">
-        <v>1.06232017733662</v>
+        <v>1.0047594768048</v>
       </c>
       <c r="N13">
-        <v>1.049281755338176</v>
+        <v>0.9979325694511642</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.04146019375436</v>
+        <v>0.966795809624617</v>
       </c>
       <c r="D14">
-        <v>1.040863529847991</v>
+        <v>0.9925050385198295</v>
       </c>
       <c r="E14">
-        <v>1.049271705141608</v>
+        <v>0.9858392611348977</v>
       </c>
       <c r="F14">
-        <v>1.059050671700036</v>
+        <v>0.990876706276654</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03639406719275</v>
+        <v>1.032842943023541</v>
       </c>
       <c r="J14">
-        <v>1.047989441563473</v>
+        <v>0.9976560056997319</v>
       </c>
       <c r="K14">
-        <v>1.044416397526177</v>
+        <v>1.0075868531016</v>
       </c>
       <c r="L14">
-        <v>1.052793962605954</v>
+        <v>1.001050588983454</v>
       </c>
       <c r="M14">
-        <v>1.062538002868901</v>
+        <v>1.005989947916067</v>
       </c>
       <c r="N14">
-        <v>1.049477706776563</v>
+        <v>0.9990727916605687</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.041618409079028</v>
+        <v>0.9677334494916375</v>
       </c>
       <c r="D15">
-        <v>1.040978092566324</v>
+        <v>0.9931741941597091</v>
       </c>
       <c r="E15">
-        <v>1.049413464516693</v>
+        <v>0.9866395788418378</v>
       </c>
       <c r="F15">
-        <v>1.059204403153642</v>
+        <v>0.9917370962467307</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036428703018637</v>
+        <v>1.033104459211299</v>
       </c>
       <c r="J15">
-        <v>1.048109960772874</v>
+        <v>0.9983533684475143</v>
       </c>
       <c r="K15">
-        <v>1.044511147268128</v>
+        <v>1.008153342832875</v>
       </c>
       <c r="L15">
-        <v>1.052915996624636</v>
+        <v>1.001744572756761</v>
       </c>
       <c r="M15">
-        <v>1.062672179765852</v>
+        <v>1.006743734701453</v>
       </c>
       <c r="N15">
-        <v>1.049598397137065</v>
+        <v>0.9997711447434415</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.042538785283772</v>
+        <v>0.9731083403043432</v>
       </c>
       <c r="D16">
-        <v>1.041644408767887</v>
+        <v>0.9970131119935375</v>
       </c>
       <c r="E16">
-        <v>1.050238220627252</v>
+        <v>0.9912315701889846</v>
       </c>
       <c r="F16">
-        <v>1.06009888130485</v>
+        <v>0.9966741821384727</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036629590510193</v>
+        <v>1.034599866546115</v>
       </c>
       <c r="J16">
-        <v>1.048810801713038</v>
+        <v>1.002350723712677</v>
       </c>
       <c r="K16">
-        <v>1.045061925030565</v>
+        <v>1.01139966884722</v>
       </c>
       <c r="L16">
-        <v>1.053625746256004</v>
+        <v>1.005723817632832</v>
       </c>
       <c r="M16">
-        <v>1.063452653918539</v>
+        <v>1.011066890849044</v>
       </c>
       <c r="N16">
-        <v>1.050300233351751</v>
+        <v>1.003774176711583</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.043115674183209</v>
+        <v>0.9764101550796405</v>
       </c>
       <c r="D17">
-        <v>1.042061944863153</v>
+        <v>0.9993738722340383</v>
       </c>
       <c r="E17">
-        <v>1.050755269587606</v>
+        <v>0.9940560414392899</v>
       </c>
       <c r="F17">
-        <v>1.060659700162744</v>
+        <v>0.9997112877190104</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036754979831339</v>
+        <v>1.035515165122351</v>
       </c>
       <c r="J17">
-        <v>1.049249867797479</v>
+        <v>1.004806043940427</v>
       </c>
       <c r="K17">
-        <v>1.045406794422234</v>
+        <v>1.013392888651656</v>
       </c>
       <c r="L17">
-        <v>1.054070481322828</v>
+        <v>1.00816909866889</v>
       </c>
       <c r="M17">
-        <v>1.063941794980664</v>
+        <v>1.013724381001735</v>
       </c>
       <c r="N17">
-        <v>1.050739922960394</v>
+        <v>1.006232983775686</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C18">
-        <v>1.043452008079985</v>
+        <v>0.9783120596140479</v>
       </c>
       <c r="D18">
-        <v>1.04230533435141</v>
+        <v>1.000734537918035</v>
       </c>
       <c r="E18">
-        <v>1.051056749742758</v>
+        <v>0.9956842221748006</v>
       </c>
       <c r="F18">
-        <v>1.060986723378371</v>
+        <v>1.00146217845145</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03682789368402</v>
+        <v>1.036041156966373</v>
       </c>
       <c r="J18">
-        <v>1.049505770142796</v>
+        <v>1.006220213320806</v>
       </c>
       <c r="K18">
-        <v>1.045607729210214</v>
+        <v>1.014540604315027</v>
       </c>
       <c r="L18">
-        <v>1.054329719368546</v>
+        <v>1.009577869733706</v>
       </c>
       <c r="M18">
-        <v>1.064226949696442</v>
+        <v>1.015255720431896</v>
       </c>
       <c r="N18">
-        <v>1.050996188716393</v>
+        <v>1.007649161438793</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.043566663081436</v>
+        <v>0.978956593334362</v>
       </c>
       <c r="D19">
-        <v>1.042388298186754</v>
+        <v>1.001195785314348</v>
       </c>
       <c r="E19">
-        <v>1.051159528925611</v>
+        <v>0.9962361981743643</v>
       </c>
       <c r="F19">
-        <v>1.061098214275046</v>
+        <v>1.002055778109611</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036852717548117</v>
+        <v>1.036219196492922</v>
       </c>
       <c r="J19">
-        <v>1.049592992902132</v>
+        <v>1.006699431747722</v>
       </c>
       <c r="K19">
-        <v>1.045676205304962</v>
+        <v>1.014929477028752</v>
       </c>
       <c r="L19">
-        <v>1.054418084444167</v>
+        <v>1.010055323383463</v>
       </c>
       <c r="M19">
-        <v>1.0643241543122</v>
+        <v>1.01577476679053</v>
       </c>
       <c r="N19">
-        <v>1.051083535342052</v>
+        <v>1.008129060410843</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.043053795618494</v>
+        <v>0.9760584074308298</v>
       </c>
       <c r="D20">
-        <v>1.042017162972228</v>
+        <v>0.9991222892357906</v>
       </c>
       <c r="E20">
-        <v>1.050699806109441</v>
+        <v>0.9937550163675362</v>
       </c>
       <c r="F20">
-        <v>1.060599539266612</v>
+        <v>0.9993875865467949</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036741549886643</v>
+        <v>1.035417784602541</v>
       </c>
       <c r="J20">
-        <v>1.04920278062793</v>
+        <v>1.004544488253938</v>
       </c>
       <c r="K20">
-        <v>1.045369816161966</v>
+        <v>1.013180589706772</v>
       </c>
       <c r="L20">
-        <v>1.054022782916484</v>
+        <v>1.007908572381284</v>
       </c>
       <c r="M20">
-        <v>1.063889330640972</v>
+        <v>1.013441213061361</v>
       </c>
       <c r="N20">
-        <v>1.050692768921663</v>
+        <v>1.005971056650122</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.041384567189075</v>
+        <v>0.9663461707570192</v>
       </c>
       <c r="D21">
-        <v>1.040808766981053</v>
+        <v>0.9921842074707184</v>
       </c>
       <c r="E21">
-        <v>1.049203946402731</v>
+        <v>0.985455553211857</v>
       </c>
       <c r="F21">
-        <v>1.058977191705993</v>
+        <v>0.9904642044248828</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036377500797664</v>
+        <v>1.032717469866482</v>
       </c>
       <c r="J21">
-        <v>1.047931829280374</v>
+        <v>0.9973215885396421</v>
       </c>
       <c r="K21">
-        <v>1.044371100235059</v>
+        <v>1.007315180915716</v>
       </c>
       <c r="L21">
-        <v>1.052735627956961</v>
+        <v>1.00071781500282</v>
       </c>
       <c r="M21">
-        <v>1.062473865481311</v>
+        <v>1.005628515783662</v>
       </c>
       <c r="N21">
-        <v>1.049420012677413</v>
+        <v>0.9987378995897535</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.040333601463464</v>
+        <v>0.9599981229780002</v>
       </c>
       <c r="D22">
-        <v>1.040047598023059</v>
+        <v>0.9876588099082206</v>
       </c>
       <c r="E22">
-        <v>1.0482624462704</v>
+        <v>0.9800438204695393</v>
       </c>
       <c r="F22">
-        <v>1.057956275511182</v>
+        <v>0.9846468582647172</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036146581747522</v>
+        <v>1.030941780577319</v>
       </c>
       <c r="J22">
-        <v>1.04713091426854</v>
+        <v>0.9926002786261091</v>
       </c>
       <c r="K22">
-        <v>1.043741141356388</v>
+        <v>1.003478777685134</v>
       </c>
       <c r="L22">
-        <v>1.05192478789389</v>
+        <v>0.996021257335342</v>
       </c>
       <c r="M22">
-        <v>1.061582487603662</v>
+        <v>1.000528725336187</v>
       </c>
       <c r="N22">
-        <v>1.048617960274396</v>
+        <v>0.9940098848746017</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.040890878847859</v>
+        <v>0.9633875782664469</v>
       </c>
       <c r="D23">
-        <v>1.040451242523284</v>
+        <v>0.9900741144834367</v>
       </c>
       <c r="E23">
-        <v>1.048761649496611</v>
+        <v>0.9829320629105688</v>
       </c>
       <c r="F23">
-        <v>1.058497568266505</v>
+        <v>0.9877514648246625</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036269189037935</v>
+        <v>1.03189084883527</v>
       </c>
       <c r="J23">
-        <v>1.047555668612971</v>
+        <v>0.9951211393555115</v>
       </c>
       <c r="K23">
-        <v>1.044075287995325</v>
+        <v>1.005527365583496</v>
       </c>
       <c r="L23">
-        <v>1.052354778744575</v>
+        <v>0.9985285433473469</v>
       </c>
       <c r="M23">
-        <v>1.062055160331605</v>
+        <v>1.003250996281491</v>
       </c>
       <c r="N23">
-        <v>1.049043317818715</v>
+        <v>0.9965343255153863</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.043081756359567</v>
+        <v>0.9762174209155069</v>
       </c>
       <c r="D24">
-        <v>1.042037398451889</v>
+        <v>0.9992360190463034</v>
       </c>
       <c r="E24">
-        <v>1.050724867994938</v>
+        <v>0.9938910960302767</v>
       </c>
       <c r="F24">
-        <v>1.060626723673497</v>
+        <v>0.9995339166146228</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03674761899165</v>
+        <v>1.035461810966805</v>
       </c>
       <c r="J24">
-        <v>1.049224057903465</v>
+        <v>1.004662729376094</v>
       </c>
       <c r="K24">
-        <v>1.045386525731342</v>
+        <v>1.013276564342619</v>
       </c>
       <c r="L24">
-        <v>1.054044336293772</v>
+        <v>1.008026346953429</v>
       </c>
       <c r="M24">
-        <v>1.063913037490822</v>
+        <v>1.013569222146273</v>
       </c>
       <c r="N24">
-        <v>1.05071407641337</v>
+        <v>1.006089465688234</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.045618069311216</v>
+        <v>0.9901738870090206</v>
       </c>
       <c r="D25">
-        <v>1.043872086987068</v>
+        <v>1.00923332243755</v>
       </c>
       <c r="E25">
-        <v>1.052998945813616</v>
+        <v>1.005859094447404</v>
       </c>
       <c r="F25">
-        <v>1.063093866769847</v>
+        <v>1.012406359578884</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037294044453012</v>
+        <v>1.039298839460856</v>
       </c>
       <c r="J25">
-        <v>1.051152403628782</v>
+        <v>1.015036525263732</v>
       </c>
       <c r="K25">
-        <v>1.046899462227065</v>
+        <v>1.021689974167196</v>
       </c>
       <c r="L25">
-        <v>1.055998386894671</v>
+        <v>1.018367131348557</v>
       </c>
       <c r="M25">
-        <v>1.066063019362498</v>
+        <v>1.024815087878236</v>
       </c>
       <c r="N25">
-        <v>1.052645160610801</v>
+        <v>1.016477993555923</v>
       </c>
     </row>
   </sheetData>
